--- a/teaching/traditional_assets/database/data/kenya/kenya_retail_distributors.xlsx
+++ b/teaching/traditional_assets/database/data/kenya/kenya_retail_distributors.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.323</v>
+        <v>-0.318</v>
       </c>
       <c r="G2">
-        <v>-0.8689320388349514</v>
+        <v>-0.7697368421052631</v>
       </c>
       <c r="H2">
-        <v>-0.8689320388349514</v>
+        <v>-0.7697368421052631</v>
       </c>
       <c r="I2">
-        <v>-0.7738812904061485</v>
+        <v>-0.5805612910675676</v>
       </c>
       <c r="J2">
-        <v>-0.7738812904061485</v>
+        <v>-0.5805612910675676</v>
       </c>
       <c r="K2">
-        <v>-0.907</v>
+        <v>-2.66</v>
       </c>
       <c r="L2">
-        <v>-0.4402912621359223</v>
+        <v>-1.75</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.754</v>
+        <v>0.749</v>
       </c>
       <c r="V2">
-        <v>0.3307017543859649</v>
+        <v>0.3242424242424242</v>
       </c>
       <c r="W2">
-        <v>-0.1701688555347092</v>
+        <v>-0.6734177215189874</v>
       </c>
       <c r="X2">
-        <v>0.09136768354603569</v>
+        <v>0.07460332883262136</v>
       </c>
       <c r="Y2">
-        <v>-0.2615365390807449</v>
+        <v>-0.7480210503516087</v>
       </c>
       <c r="Z2">
-        <v>0.6149295415887241</v>
+        <v>0.4401630464321856</v>
       </c>
       <c r="AA2">
-        <v>-0.4758824671535432</v>
+        <v>-0.2555416265169034</v>
       </c>
       <c r="AB2">
-        <v>0.08624211361501685</v>
+        <v>0.07077732592338744</v>
       </c>
       <c r="AC2">
-        <v>-0.5621245807685601</v>
+        <v>-0.3263189524402908</v>
       </c>
       <c r="AD2">
-        <v>0.07000000000000001</v>
+        <v>0.286</v>
       </c>
       <c r="AE2">
-        <v>0.3559772911833288</v>
+        <v>0.1872658121135139</v>
       </c>
       <c r="AF2">
-        <v>0.4259772911833288</v>
+        <v>0.4732658121135139</v>
       </c>
       <c r="AG2">
-        <v>-0.3280227088166712</v>
+        <v>-0.2757341878864861</v>
       </c>
       <c r="AH2">
-        <v>0.1574208669715215</v>
+        <v>0.1700397461333858</v>
       </c>
       <c r="AI2">
-        <v>0.09734449308993975</v>
+        <v>0.3433777490190954</v>
       </c>
       <c r="AJ2">
-        <v>-0.1680463754871949</v>
+        <v>-0.135544817321592</v>
       </c>
       <c r="AK2">
-        <v>-0.09056454042800018</v>
+        <v>-0.4381839638806663</v>
       </c>
       <c r="AL2">
-        <v>0.007</v>
+        <v>0.016</v>
       </c>
       <c r="AM2">
-        <v>-0.094</v>
+        <v>0.016</v>
       </c>
       <c r="AN2">
-        <v>-0.04626569729015201</v>
+        <v>-0.3466666666666667</v>
       </c>
       <c r="AO2">
-        <v>-231.4285714285714</v>
+        <v>-56.375</v>
       </c>
       <c r="AP2">
-        <v>0.2168028478629684</v>
+        <v>0.3342232580442256</v>
       </c>
       <c r="AQ2">
-        <v>17.23404255319149</v>
+        <v>-56.375</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.323</v>
+        <v>-0.318</v>
       </c>
       <c r="G3">
-        <v>-0.8689320388349514</v>
+        <v>-0.7697368421052631</v>
       </c>
       <c r="H3">
-        <v>-0.8689320388349514</v>
+        <v>-0.7697368421052631</v>
       </c>
       <c r="I3">
-        <v>-0.7738812904061485</v>
+        <v>-0.5805612910675676</v>
       </c>
       <c r="J3">
-        <v>-0.7738812904061485</v>
+        <v>-0.5805612910675676</v>
       </c>
       <c r="K3">
-        <v>-0.907</v>
+        <v>-2.66</v>
       </c>
       <c r="L3">
-        <v>-0.4402912621359223</v>
+        <v>-1.75</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.754</v>
+        <v>0.749</v>
       </c>
       <c r="V3">
-        <v>0.3307017543859649</v>
+        <v>0.3242424242424242</v>
       </c>
       <c r="W3">
-        <v>-0.1701688555347092</v>
+        <v>-0.6734177215189874</v>
       </c>
       <c r="X3">
-        <v>0.09136768354603569</v>
+        <v>0.07460332883262136</v>
       </c>
       <c r="Y3">
-        <v>-0.2615365390807449</v>
+        <v>-0.7480210503516087</v>
       </c>
       <c r="Z3">
-        <v>0.6149295415887241</v>
+        <v>0.4401630464321856</v>
       </c>
       <c r="AA3">
-        <v>-0.4758824671535432</v>
+        <v>-0.2555416265169034</v>
       </c>
       <c r="AB3">
-        <v>0.08624211361501685</v>
+        <v>0.07077732592338744</v>
       </c>
       <c r="AC3">
-        <v>-0.5621245807685601</v>
+        <v>-0.3263189524402908</v>
       </c>
       <c r="AD3">
-        <v>0.07000000000000001</v>
+        <v>0.286</v>
       </c>
       <c r="AE3">
-        <v>0.3559772911833288</v>
+        <v>0.1872658121135139</v>
       </c>
       <c r="AF3">
-        <v>0.4259772911833288</v>
+        <v>0.4732658121135139</v>
       </c>
       <c r="AG3">
-        <v>-0.3280227088166712</v>
+        <v>-0.2757341878864861</v>
       </c>
       <c r="AH3">
-        <v>0.1574208669715215</v>
+        <v>0.1700397461333858</v>
       </c>
       <c r="AI3">
-        <v>0.09734449308993975</v>
+        <v>0.3433777490190954</v>
       </c>
       <c r="AJ3">
-        <v>-0.1680463754871949</v>
+        <v>-0.135544817321592</v>
       </c>
       <c r="AK3">
-        <v>-0.09056454042800018</v>
+        <v>-0.4381839638806663</v>
       </c>
       <c r="AL3">
-        <v>0.007</v>
+        <v>0.016</v>
       </c>
       <c r="AM3">
-        <v>-0.094</v>
+        <v>0.016</v>
       </c>
       <c r="AN3">
-        <v>-0.04626569729015201</v>
+        <v>-0.3466666666666667</v>
       </c>
       <c r="AO3">
-        <v>-231.4285714285714</v>
+        <v>-56.375</v>
       </c>
       <c r="AP3">
-        <v>0.2168028478629684</v>
+        <v>0.3342232580442256</v>
       </c>
       <c r="AQ3">
-        <v>17.23404255319149</v>
+        <v>-56.375</v>
       </c>
     </row>
   </sheetData>
